--- a/Documentary/Projektplan.xlsx
+++ b/Documentary/Projektplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaximillianKempen\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaximillianKempen\Documents\Animalshelter\Documentary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7673EFF-5D8A-4091-AEDA-7EDD6CC94C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CFC9CA-F829-465C-8339-1D4F0ED71816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09F0FA67-8C4C-4232-8D58-274209F9B638}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>TO-DO</t>
   </si>
@@ -123,13 +123,16 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>Together</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +160,21 @@
       <b/>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,17 +244,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,7 +594,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,7 +625,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2"/>
@@ -615,7 +635,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H2" t="s">
@@ -627,13 +647,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H3" t="s">
@@ -645,13 +665,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H4" t="s">
@@ -687,6 +707,12 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
+      <c r="G6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -699,7 +725,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H7" t="s">
@@ -717,7 +743,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
@@ -835,7 +861,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
@@ -844,13 +870,13 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Documentary/Projektplan.xlsx
+++ b/Documentary/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaximillianKempen\Documents\Animalshelter\Documentary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CFC9CA-F829-465C-8339-1D4F0ED71816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F522F081-475B-4253-BA68-C8FA1DBDF254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09F0FA67-8C4C-4232-8D58-274209F9B638}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>TO-DO</t>
   </si>
@@ -47,9 +47,6 @@
     <t>SQL-Datenbank</t>
   </si>
   <si>
-    <t>Mapping to Java</t>
-  </si>
-  <si>
     <t>Mapping through DTO</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>Build Panels</t>
   </si>
   <si>
-    <t>Make Component classes</t>
-  </si>
-  <si>
     <t>Fill + Save + Load methods</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Swap Panel + Popup Panel/Frame</t>
-  </si>
-  <si>
     <t>Mockups</t>
   </si>
   <si>
@@ -126,6 +117,18 @@
   </si>
   <si>
     <t>Together</t>
+  </si>
+  <si>
+    <t>Popups</t>
+  </si>
+  <si>
+    <t>Swap Panel</t>
+  </si>
+  <si>
+    <t>Mapping to Java(Classes)</t>
+  </si>
+  <si>
+    <t>Make Component classes + GUICONST</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -244,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -255,8 +257,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,15 +592,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C4EA50-D108-440A-A682-33163883996E}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.21875" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -609,37 +610,35 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -647,17 +646,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="G3" s="5"/>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -665,126 +664,122 @@
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="C4" s="10"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="G4" s="6"/>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -792,92 +787,106 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>16</v>
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
